--- a/excel/message_details/message_details_MeasurementSeriesNotification.xlsx
+++ b/excel/message_details/message_details_MeasurementSeriesNotification.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ivan\Documents\projects\WPG\nl protocol\NL protocol Python Geerator\excel\message_details\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\coraj\Documents\Internet Explorer\Universidad\work\NL-automation\excel\message_details\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18540892-6AE5-4B2E-BDF0-530491A06BDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="1"/>
+    <workbookView xWindow="5655" yWindow="1710" windowWidth="20505" windowHeight="11880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="compressed cases" sheetId="1" r:id="rId1"/>
@@ -316,33 +317,18 @@
     <t>struct</t>
   </si>
   <si>
-    <t>market_paries</t>
-  </si>
-  <si>
     <t>supplier, reciver, sender</t>
   </si>
   <si>
-    <t>net areas</t>
-  </si>
-  <si>
     <t>net areas_test</t>
   </si>
   <si>
-    <t>grid_points</t>
-  </si>
-  <si>
     <t>grid_points_test</t>
   </si>
   <si>
-    <t>supplyContracts</t>
-  </si>
-  <si>
     <t>supplyContracts_test</t>
   </si>
   <si>
-    <t>connections</t>
-  </si>
-  <si>
     <t>connections_test</t>
   </si>
   <si>
@@ -404,13 +390,28 @@
   </si>
   <si>
     <t>Error Message 1_1.xml</t>
+  </si>
+  <si>
+    <t>struct_market_paries</t>
+  </si>
+  <si>
+    <t>struct_grid_points</t>
+  </si>
+  <si>
+    <t>struct_connections</t>
+  </si>
+  <si>
+    <t>struct_net_areas</t>
+  </si>
+  <si>
+    <t>struct_supply_contracts</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -422,6 +423,12 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -459,9 +466,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -557,6 +567,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -592,6 +619,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -767,15 +811,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H66"/>
   <sheetViews>
-    <sheetView topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="C54" sqref="C54"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="A66" sqref="A62:A66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="107.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="101.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
   </cols>
@@ -2302,74 +2347,75 @@
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
+      <c r="A62" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B62" t="s">
         <v>98</v>
       </c>
-      <c r="B62" t="s">
+      <c r="C62" t="s">
+        <v>98</v>
+      </c>
+      <c r="D62" t="s">
+        <v>98</v>
+      </c>
+      <c r="E62" t="s">
+        <v>98</v>
+      </c>
+      <c r="F62" t="s">
+        <v>98</v>
+      </c>
+      <c r="G62" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B63" t="s">
         <v>99</v>
-      </c>
-      <c r="C62" t="s">
-        <v>99</v>
-      </c>
-      <c r="D62" t="s">
-        <v>99</v>
-      </c>
-      <c r="E62" t="s">
-        <v>99</v>
-      </c>
-      <c r="F62" t="s">
-        <v>99</v>
-      </c>
-      <c r="G62" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B63" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B64" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B65" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B66" t="s">
         <v>102</v>
       </c>
-      <c r="B64" t="s">
+      <c r="G66" t="s">
         <v>103</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B65" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B66" t="s">
-        <v>107</v>
-      </c>
-      <c r="G66" t="s">
-        <v>108</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G47" sqref="G47"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2403,10 +2449,10 @@
         <v>7</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -2432,10 +2478,10 @@
         <v>9</v>
       </c>
       <c r="H2" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="I2" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -2591,25 +2637,25 @@
         <v>18</v>
       </c>
       <c r="C8" t="s">
+        <v>108</v>
+      </c>
+      <c r="D8" t="s">
+        <v>109</v>
+      </c>
+      <c r="E8" t="s">
+        <v>110</v>
+      </c>
+      <c r="F8" t="s">
+        <v>111</v>
+      </c>
+      <c r="G8" t="s">
+        <v>112</v>
+      </c>
+      <c r="H8" t="s">
         <v>113</v>
       </c>
-      <c r="D8" t="s">
+      <c r="I8" t="s">
         <v>114</v>
-      </c>
-      <c r="E8" t="s">
-        <v>115</v>
-      </c>
-      <c r="F8" t="s">
-        <v>116</v>
-      </c>
-      <c r="G8" t="s">
-        <v>117</v>
-      </c>
-      <c r="H8" t="s">
-        <v>118</v>
-      </c>
-      <c r="I8" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -3084,25 +3130,25 @@
         <v>18</v>
       </c>
       <c r="C25" t="s">
+        <v>108</v>
+      </c>
+      <c r="D25" t="s">
+        <v>109</v>
+      </c>
+      <c r="E25" t="s">
+        <v>110</v>
+      </c>
+      <c r="F25" t="s">
+        <v>111</v>
+      </c>
+      <c r="G25" t="s">
+        <v>112</v>
+      </c>
+      <c r="H25" t="s">
         <v>113</v>
       </c>
-      <c r="D25" t="s">
+      <c r="I25" t="s">
         <v>114</v>
-      </c>
-      <c r="E25" t="s">
-        <v>115</v>
-      </c>
-      <c r="F25" t="s">
-        <v>116</v>
-      </c>
-      <c r="G25" t="s">
-        <v>117</v>
-      </c>
-      <c r="H25" t="s">
-        <v>118</v>
-      </c>
-      <c r="I25" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -3756,25 +3802,25 @@
         <v>72</v>
       </c>
       <c r="C49" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D49" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="E49" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="F49" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="G49" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="H49" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="I49" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
@@ -3785,25 +3831,25 @@
         <v>74</v>
       </c>
       <c r="C50" t="s">
+        <v>116</v>
+      </c>
+      <c r="D50" t="s">
+        <v>117</v>
+      </c>
+      <c r="E50" t="s">
+        <v>118</v>
+      </c>
+      <c r="F50" t="s">
+        <v>119</v>
+      </c>
+      <c r="G50" t="s">
+        <v>120</v>
+      </c>
+      <c r="H50" t="s">
         <v>121</v>
       </c>
-      <c r="D50" t="s">
+      <c r="I50" t="s">
         <v>122</v>
-      </c>
-      <c r="E50" t="s">
-        <v>123</v>
-      </c>
-      <c r="F50" t="s">
-        <v>124</v>
-      </c>
-      <c r="G50" t="s">
-        <v>125</v>
-      </c>
-      <c r="H50" t="s">
-        <v>126</v>
-      </c>
-      <c r="I50" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
@@ -3872,25 +3918,25 @@
         <v>18</v>
       </c>
       <c r="C53" t="s">
+        <v>108</v>
+      </c>
+      <c r="D53" t="s">
+        <v>109</v>
+      </c>
+      <c r="E53" t="s">
+        <v>110</v>
+      </c>
+      <c r="F53" t="s">
+        <v>111</v>
+      </c>
+      <c r="G53" t="s">
+        <v>112</v>
+      </c>
+      <c r="H53" t="s">
         <v>113</v>
       </c>
-      <c r="D53" t="s">
+      <c r="I53" t="s">
         <v>114</v>
-      </c>
-      <c r="E53" t="s">
-        <v>115</v>
-      </c>
-      <c r="F53" t="s">
-        <v>116</v>
-      </c>
-      <c r="G53" t="s">
-        <v>117</v>
-      </c>
-      <c r="H53" t="s">
-        <v>118</v>
-      </c>
-      <c r="I53" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
@@ -4073,64 +4119,64 @@
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
+      <c r="A61" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B61" t="s">
         <v>98</v>
       </c>
-      <c r="B61" t="s">
+      <c r="C61" t="s">
+        <v>98</v>
+      </c>
+      <c r="D61" t="s">
+        <v>98</v>
+      </c>
+      <c r="E61" t="s">
+        <v>98</v>
+      </c>
+      <c r="F61" t="s">
+        <v>98</v>
+      </c>
+      <c r="H61" t="s">
+        <v>98</v>
+      </c>
+      <c r="I61" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B62" t="s">
         <v>99</v>
       </c>
-      <c r="C61" t="s">
-        <v>99</v>
-      </c>
-      <c r="D61" t="s">
-        <v>99</v>
-      </c>
-      <c r="E61" t="s">
-        <v>99</v>
-      </c>
-      <c r="F61" t="s">
-        <v>99</v>
-      </c>
-      <c r="H61" t="s">
-        <v>99</v>
-      </c>
-      <c r="I61" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B63" t="s">
         <v>100</v>
       </c>
-      <c r="B62" t="s">
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B64" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B65" t="s">
         <v>102</v>
       </c>
-      <c r="B63" t="s">
+      <c r="F65" t="s">
         <v>103</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>104</v>
-      </c>
-      <c r="B64" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>106</v>
-      </c>
-      <c r="B65" t="s">
-        <v>107</v>
-      </c>
-      <c r="F65" t="s">
-        <v>108</v>
       </c>
     </row>
   </sheetData>

--- a/excel/message_details/message_details_MeasurementSeriesNotification.xlsx
+++ b/excel/message_details/message_details_MeasurementSeriesNotification.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\coraj\Documents\Internet Explorer\Universidad\work\NL-automation\excel\message_details\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ivan\Documents\projects\WPG\nl protocol\NL protocol Python Geerator\excel\message_details\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18540892-6AE5-4B2E-BDF0-530491A06BDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5655" yWindow="1710" windowWidth="20505" windowHeight="11880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5655" yWindow="1710" windowWidth="20505" windowHeight="11880" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="compressed cases" sheetId="1" r:id="rId1"/>
@@ -21,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1008" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1008" uniqueCount="132">
   <si>
     <t>XML ELEMENT PATH</t>
   </si>
@@ -405,12 +404,24 @@
   </si>
   <si>
     <t>struct_supply_contracts</t>
+  </si>
+  <si>
+    <t>correct supply contract</t>
+  </si>
+  <si>
+    <t>correct gridpoint</t>
+  </si>
+  <si>
+    <t>correct net area</t>
+  </si>
+  <si>
+    <t>correct connections</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -431,12 +442,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -466,7 +483,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -474,6 +491,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -567,23 +585,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -619,23 +620,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -811,7 +795,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H66"/>
   <sheetViews>
     <sheetView topLeftCell="A52" workbookViewId="0">
@@ -2411,11 +2395,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I65"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50"/>
+      <selection activeCell="B65" sqref="B65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4148,32 +4132,32 @@
       <c r="A62" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B62" t="s">
-        <v>99</v>
+      <c r="B62" s="3" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="B63" t="s">
-        <v>100</v>
+      <c r="B63" s="3" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B64" t="s">
-        <v>101</v>
+      <c r="B64" s="3" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B65" t="s">
-        <v>102</v>
+      <c r="B65" s="3" t="s">
+        <v>131</v>
       </c>
       <c r="F65" t="s">
         <v>103</v>

--- a/excel/message_details/message_details_MeasurementSeriesNotification.xlsx
+++ b/excel/message_details/message_details_MeasurementSeriesNotification.xlsx
@@ -1,80 +1,44 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="6390" yWindow="1620" windowWidth="20505" windowHeight="11880" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
-  </bookViews>
+  <workbookPr codeName="ThisWorkbook"/>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="compressed cases" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="decompressed cases" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
-      <sz val="11"/>
+      <sz val="12"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <b val="1"/>
-      <sz val="11"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <b val="1"/>
-      <sz val="11"/>
     </font>
     <font>
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.7999816888943144"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -87,23 +51,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -176,7 +133,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -218,7 +175,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -251,26 +208,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -303,23 +243,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -354,20 +277,16 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
+                <a:tint val="100000"/>
+                <a:shade val="100000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -489,7 +408,46 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </a:style>
+    </a:spDef>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
 </a:theme>
 </file>
@@ -509,49 +467,49 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="4" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>XML ELEMENT PATH</t>
         </is>
       </c>
-      <c r="B1" s="4" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>DEFAULT VALUES</t>
         </is>
       </c>
-      <c r="C1" s="4" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Error Message 1</t>
         </is>
       </c>
-      <c r="D1" s="4" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Error Message 2</t>
         </is>
       </c>
-      <c r="E1" s="4" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Error Message 3</t>
         </is>
       </c>
-      <c r="F1" s="4" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Error Message 4</t>
         </is>
       </c>
-      <c r="G1" s="4" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Error Message 5</t>
         </is>
       </c>
-      <c r="H1" s="4" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Error Message 6</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="4" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t>MeasurementSeriesNotification/EDSNBusinessDocumentHeader/ContentHash</t>
         </is>
@@ -563,7 +521,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[1,2]</t>
+          <t>not_mapped</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -593,7 +551,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="4" t="inlineStr">
+      <c r="A3" s="1" t="inlineStr">
         <is>
           <t>MeasurementSeriesNotification/EDSNBusinessDocumentHeader/ConversationID</t>
         </is>
@@ -635,7 +593,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="4" t="inlineStr">
+      <c r="A4" s="1" t="inlineStr">
         <is>
           <t>MeasurementSeriesNotification/EDSNBusinessDocumentHeader/CorrelationID</t>
         </is>
@@ -677,7 +635,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="4" t="inlineStr">
+      <c r="A5" s="1" t="inlineStr">
         <is>
           <t>MeasurementSeriesNotification/EDSNBusinessDocumentHeader/CreationTimestamp</t>
         </is>
@@ -719,7 +677,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="4" t="inlineStr">
+      <c r="A6" s="1" t="inlineStr">
         <is>
           <t>MeasurementSeriesNotification/EDSNBusinessDocumentHeader/DocumentID</t>
         </is>
@@ -761,7 +719,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="4" t="inlineStr">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>MeasurementSeriesNotification/EDSNBusinessDocumentHeader/ExpiresAt</t>
         </is>
@@ -803,7 +761,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="4" t="inlineStr">
+      <c r="A8" s="1" t="inlineStr">
         <is>
           <t>MeasurementSeriesNotification/EDSNBusinessDocumentHeader/MessageID</t>
         </is>
@@ -845,7 +803,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="4" t="inlineStr">
+      <c r="A9" s="1" t="inlineStr">
         <is>
           <t>MeasurementSeriesNotification/EDSNBusinessDocumentHeader/ProcessTypeID</t>
         </is>
@@ -887,7 +845,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="4" t="inlineStr">
+      <c r="A10" s="1" t="inlineStr">
         <is>
           <t>MeasurementSeriesNotification/EDSNBusinessDocumentHeader/RepeatedRequest</t>
         </is>
@@ -929,7 +887,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="4" t="inlineStr">
+      <c r="A11" s="1" t="inlineStr">
         <is>
           <t>MeasurementSeriesNotification/EDSNBusinessDocumentHeader/TestRequest</t>
         </is>
@@ -971,7 +929,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="4" t="inlineStr">
+      <c r="A12" s="1" t="inlineStr">
         <is>
           <t>MeasurementSeriesNotification/EDSNBusinessDocumentHeader/Destination/Receiver/Authority</t>
         </is>
@@ -1013,7 +971,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="4" t="inlineStr">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>MeasurementSeriesNotification/EDSNBusinessDocumentHeader/Destination/Receiver/ContactTypeIdentifier</t>
         </is>
@@ -1055,7 +1013,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="4" t="inlineStr">
+      <c r="A14" s="1" t="inlineStr">
         <is>
           <t>MeasurementSeriesNotification/EDSNBusinessDocumentHeader/Destination/Receiver/ReceiverID</t>
         </is>
@@ -1097,7 +1055,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="4" t="inlineStr">
+      <c r="A15" s="1" t="inlineStr">
         <is>
           <t>MeasurementSeriesNotification/EDSNBusinessDocumentHeader/Destination/Service/ServiceMethod</t>
         </is>
@@ -1139,7 +1097,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="4" t="inlineStr">
+      <c r="A16" s="1" t="inlineStr">
         <is>
           <t>MeasurementSeriesNotification/EDSNBusinessDocumentHeader/Destination/Service/ServiceName</t>
         </is>
@@ -1181,7 +1139,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="4" t="inlineStr">
+      <c r="A17" s="1" t="inlineStr">
         <is>
           <t>MeasurementSeriesNotification/EDSNBusinessDocumentHeader/Manifest/NumberofItems</t>
         </is>
@@ -1223,7 +1181,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="4" t="inlineStr">
+      <c r="A18" s="1" t="inlineStr">
         <is>
           <t>MeasurementSeriesNotification/EDSNBusinessDocumentHeader/Manifest/ManifestItem/Description</t>
         </is>
@@ -1265,7 +1223,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="4" t="inlineStr">
+      <c r="A19" s="1" t="inlineStr">
         <is>
           <t>MeasurementSeriesNotification/EDSNBusinessDocumentHeader/Manifest/ManifestItem/LanguageCode</t>
         </is>
@@ -1307,7 +1265,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="4" t="inlineStr">
+      <c r="A20" s="1" t="inlineStr">
         <is>
           <t>MeasurementSeriesNotification/EDSNBusinessDocumentHeader/Manifest/ManifestItem/MimeTypeQualifierCode</t>
         </is>
@@ -1349,7 +1307,7 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="4" t="inlineStr">
+      <c r="A21" s="1" t="inlineStr">
         <is>
           <t>MeasurementSeriesNotification/EDSNBusinessDocumentHeader/Manifest/ManifestItem/UniformResourceIdentifier</t>
         </is>
@@ -1391,7 +1349,7 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="4" t="inlineStr">
+      <c r="A22" s="1" t="inlineStr">
         <is>
           <t>MeasurementSeriesNotification/EDSNBusinessDocumentHeader/Source/Authority</t>
         </is>
@@ -1433,7 +1391,7 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="4" t="inlineStr">
+      <c r="A23" s="1" t="inlineStr">
         <is>
           <t>MeasurementSeriesNotification/EDSNBusinessDocumentHeader/Source/ContactTypeIdentifier</t>
         </is>
@@ -1475,7 +1433,7 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="4" t="inlineStr">
+      <c r="A24" s="1" t="inlineStr">
         <is>
           <t>MeasurementSeriesNotification/EDSNBusinessDocumentHeader/Source/SenderID</t>
         </is>
@@ -1517,7 +1475,7 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="4" t="inlineStr">
+      <c r="A25" s="1" t="inlineStr">
         <is>
           <t>MeasurementSeriesNotification/Measurement_Series/mRID</t>
         </is>
@@ -1559,7 +1517,7 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="4" t="inlineStr">
+      <c r="A26" s="1" t="inlineStr">
         <is>
           <t>MeasurementSeriesNotification/Measurement_Series/product</t>
         </is>
@@ -1601,7 +1559,7 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="4" t="inlineStr">
+      <c r="A27" s="1" t="inlineStr">
         <is>
           <t>MeasurementSeriesNotification/Measurement_Series/referenceRevisionRequest_mRID</t>
         </is>
@@ -1643,7 +1601,7 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="4" t="inlineStr">
+      <c r="A28" s="1" t="inlineStr">
         <is>
           <t>MeasurementSeriesNotification/Measurement_Series/MarketEvaluationPoint/mRID</t>
         </is>
@@ -1685,7 +1643,7 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="4" t="inlineStr">
+      <c r="A29" s="1" t="inlineStr">
         <is>
           <t>MeasurementSeriesNotification/Measurement_Series/MarketParticipant/mRID</t>
         </is>
@@ -1727,7 +1685,7 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="4" t="inlineStr">
+      <c r="A30" s="1" t="inlineStr">
         <is>
           <t>MeasurementSeriesNotification/Measurement_Series/MarketParticipant/MarketRole/type</t>
         </is>
@@ -1769,7 +1727,7 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="4" t="inlineStr">
+      <c r="A31" s="1" t="inlineStr">
         <is>
           <t>MeasurementSeriesNotification/Measurement_Series/Domain/mRID</t>
         </is>
@@ -1811,7 +1769,7 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="4" t="inlineStr">
+      <c r="A32" s="1" t="inlineStr">
         <is>
           <t>MeasurementSeriesNotification/Measurement_Series/Domain/sourceDomain</t>
         </is>
@@ -1853,7 +1811,7 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="4" t="inlineStr">
+      <c r="A33" s="1" t="inlineStr">
         <is>
           <t>MeasurementSeriesNotification/Measurement_Series/Domain/sinkDomain</t>
         </is>
@@ -1895,7 +1853,7 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="4" t="inlineStr">
+      <c r="A34" s="1" t="inlineStr">
         <is>
           <t>MeasurementSeriesNotification/Measurement_Series/DateAndOrTime/startDateTime</t>
         </is>
@@ -1937,7 +1895,7 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="4" t="inlineStr">
+      <c r="A35" s="1" t="inlineStr">
         <is>
           <t>MeasurementSeriesNotification/Measurement_Series/DateAndOrTime/endDateTime</t>
         </is>
@@ -1979,7 +1937,7 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="4" t="inlineStr">
+      <c r="A36" s="1" t="inlineStr">
         <is>
           <t>MeasurementSeriesNotification/Measurement_Series/Detail_Series/resolution</t>
         </is>
@@ -2021,7 +1979,7 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="4" t="inlineStr">
+      <c r="A37" s="1" t="inlineStr">
         <is>
           <t>MeasurementSeriesNotification/Measurement_Series/Detail_Series/Product/identification</t>
         </is>
@@ -2063,7 +2021,7 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="4" t="inlineStr">
+      <c r="A38" s="1" t="inlineStr">
         <is>
           <t>MeasurementSeriesNotification/Measurement_Series/Detail_Series/Product/measureUnit</t>
         </is>
@@ -2105,7 +2063,7 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="4" t="inlineStr">
+      <c r="A39" s="1" t="inlineStr">
         <is>
           <t>MeasurementSeriesNotification/Measurement_Series/Detail_Series/FlowDirection/direction</t>
         </is>
@@ -2147,7 +2105,7 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="4" t="inlineStr">
+      <c r="A40" s="1" t="inlineStr">
         <is>
           <t>MeasurementSeriesNotification/Measurement_Series/Detail_Series/Point/position</t>
         </is>
@@ -2189,7 +2147,7 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="4" t="inlineStr">
+      <c r="A41" s="1" t="inlineStr">
         <is>
           <t>MeasurementSeriesNotification/Measurement_Series/Detail_Series/Point/quantity</t>
         </is>
@@ -2231,7 +2189,7 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="4" t="inlineStr">
+      <c r="A42" s="1" t="inlineStr">
         <is>
           <t>MeasurementSeriesNotification/Measurement_Series/Detail_Series/Point/origin</t>
         </is>
@@ -2273,7 +2231,7 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="4" t="inlineStr">
+      <c r="A43" s="1" t="inlineStr">
         <is>
           <t>MeasurementSeriesNotification/Measurement_Series/Detail_Series/Point/validationStatus</t>
         </is>
@@ -2315,7 +2273,7 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="4" t="inlineStr">
+      <c r="A44" s="1" t="inlineStr">
         <is>
           <t>MeasurementSeriesNotification/Measurement_Series/Detail_Series/Point/repairMethod</t>
         </is>
@@ -2357,7 +2315,7 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="4" t="inlineStr">
+      <c r="A45" s="1" t="inlineStr">
         <is>
           <t>MeasurementSeriesNotification/Measurement_Series/RestVolume_Quantity/quantity</t>
         </is>
@@ -2399,7 +2357,7 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="4" t="inlineStr">
+      <c r="A46" s="1" t="inlineStr">
         <is>
           <t>MeasurementSeriesNotification/Measurement_Series/RestVolume_Quantity/Product</t>
         </is>
@@ -2441,7 +2399,7 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="4" t="inlineStr">
+      <c r="A47" s="1" t="inlineStr">
         <is>
           <t>MeasurementSeriesNotification/Measurement_Series/RestVolume_Quantity/FlowDirection</t>
         </is>
@@ -2483,17 +2441,17 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="4" t="inlineStr"/>
+      <c r="A48" s="1" t="inlineStr"/>
     </row>
     <row r="49">
-      <c r="A49" s="4" t="inlineStr">
+      <c r="A49" s="1" t="inlineStr">
         <is>
           <t>info para json</t>
         </is>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="4" t="inlineStr">
+      <c r="A50" s="1" t="inlineStr">
         <is>
           <t>message path</t>
         </is>
@@ -2535,7 +2493,7 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="4" t="inlineStr">
+      <c r="A51" s="1" t="inlineStr">
         <is>
           <t>message name</t>
         </is>
@@ -2577,7 +2535,7 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="4" t="inlineStr">
+      <c r="A52" s="1" t="inlineStr">
         <is>
           <t>values file</t>
         </is>
@@ -2619,35 +2577,49 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="4" t="inlineStr">
+      <c r="A53" s="1" t="inlineStr">
         <is>
           <t>error code</t>
         </is>
       </c>
-      <c r="B53" t="n">
-        <v>0</v>
-      </c>
-      <c r="C53" t="n">
-        <v>676</v>
-      </c>
-      <c r="D53" t="n">
-        <v>678</v>
-      </c>
-      <c r="E53" t="n">
-        <v>684</v>
-      </c>
-      <c r="F53" t="n">
-        <v>672</v>
-      </c>
-      <c r="G53" t="n">
-        <v>657</v>
-      </c>
-      <c r="H53" t="n">
-        <v>661</v>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>676</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>678</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>684</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>672</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>657</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>661</t>
+        </is>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="4" t="inlineStr">
+      <c r="A54" s="1" t="inlineStr">
         <is>
           <t>Message ID</t>
         </is>
@@ -2689,7 +2661,7 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="4" t="inlineStr">
+      <c r="A55" s="1" t="inlineStr">
         <is>
           <t>startDate</t>
         </is>
@@ -2731,7 +2703,7 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="4" t="inlineStr">
+      <c r="A56" s="1" t="inlineStr">
         <is>
           <t>endDate</t>
         </is>
@@ -2773,7 +2745,7 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="4" t="inlineStr">
+      <c r="A57" s="1" t="inlineStr">
         <is>
           <t>receiver</t>
         </is>
@@ -2815,7 +2787,7 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="4" t="inlineStr">
+      <c r="A58" s="1" t="inlineStr">
         <is>
           <t>grid_point</t>
         </is>
@@ -2857,7 +2829,7 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="4" t="inlineStr">
+      <c r="A59" s="1" t="inlineStr">
         <is>
           <t>direction</t>
         </is>
@@ -2899,7 +2871,7 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="4" t="inlineStr">
+      <c r="A60" s="1" t="inlineStr">
         <is>
           <t>timeSeries</t>
         </is>
@@ -2941,14 +2913,14 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="4" t="inlineStr">
+      <c r="A61" s="1" t="inlineStr">
         <is>
           <t>struct</t>
         </is>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="4" t="inlineStr">
+      <c r="A62" s="1" t="inlineStr">
         <is>
           <t>struct_market_paries</t>
         </is>
@@ -2985,7 +2957,7 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="4" t="inlineStr">
+      <c r="A63" s="1" t="inlineStr">
         <is>
           <t>struct_net_areas</t>
         </is>
@@ -2997,7 +2969,7 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="4" t="inlineStr">
+      <c r="A64" s="1" t="inlineStr">
         <is>
           <t>struct_grid_points</t>
         </is>
@@ -3009,7 +2981,7 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="4" t="inlineStr">
+      <c r="A65" s="1" t="inlineStr">
         <is>
           <t>struct_supply_contracts</t>
         </is>
@@ -3021,7 +2993,7 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="4" t="inlineStr">
+      <c r="A66" s="1" t="inlineStr">
         <is>
           <t>struct_connections</t>
         </is>
@@ -3048,7 +3020,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I65"/>
+  <dimension ref="A1:H65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3057,49 +3029,44 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="4" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>XML ELEMENT PATH</t>
         </is>
       </c>
-      <c r="B1" s="4" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>DEFAULT VALUES</t>
         </is>
       </c>
-      <c r="C1" s="4" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Error Message 1</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Error Message 2</t>
         </is>
       </c>
-      <c r="D1" s="4" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Error Message 3</t>
         </is>
       </c>
-      <c r="E1" s="4" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Error Message 4</t>
         </is>
       </c>
-      <c r="F1" s="4" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Error Message 5</t>
         </is>
       </c>
-      <c r="G1" s="4" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Error Message 6</t>
-        </is>
-      </c>
-      <c r="H1" s="4" t="inlineStr">
-        <is>
-          <t>Error Message 1_0</t>
-        </is>
-      </c>
-      <c r="I1" s="4" t="inlineStr">
-        <is>
-          <t>Error Message 1_1</t>
         </is>
       </c>
     </row>
@@ -3141,12 +3108,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>2</t>
+          <t>not_mapped</t>
         </is>
       </c>
     </row>
@@ -3191,11 +3153,6 @@
           <t>not_mapped</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>not_mapped</t>
-        </is>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3238,11 +3195,6 @@
           <t>not_mapped</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>not_mapped</t>
-        </is>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3285,11 +3237,6 @@
           <t>2021-03-03T22:00:00Z</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>2021-03-03T22:00:00Z</t>
-        </is>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -3332,11 +3279,6 @@
           <t>not_mapped</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>not_mapped</t>
-        </is>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -3379,11 +3321,6 @@
           <t>not_mapped</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>not_mapped</t>
-        </is>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -3398,37 +3335,32 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
+          <t>NLPROTOC-OLTE-STEM-1000-000000000000</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
           <t>NLPROTOC-OLTE-STEM-2000-000000000000</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>NLPROTOC-OLTE-STEM-3000-000000000000</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>NLPROTOC-OLTE-STEM-4000-000000000000</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>NLPROTOC-OLTE-STEM-5000-000000000000</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>NLPROTOC-OLTE-STEM-6000-000000000000</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>NLPROTOC-OLTE-STEM-1000-000000000000</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>NLPROTOC-OLTE-STEM-1100-000000000000</t>
         </is>
       </c>
     </row>
@@ -3473,11 +3405,6 @@
           <t>N10</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>N10</t>
-        </is>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -3520,11 +3447,6 @@
           <t>not_mapped</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>not_mapped</t>
-        </is>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -3567,11 +3489,6 @@
           <t>not_mapped</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>not_mapped</t>
-        </is>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3614,11 +3531,6 @@
           <t>not_mapped</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>not_mapped</t>
-        </is>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3661,11 +3573,6 @@
           <t>DDK</t>
         </is>
       </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>DDK</t>
-        </is>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3708,11 +3615,6 @@
           <t>8716948001000</t>
         </is>
       </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>8716948001000</t>
-        </is>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3755,11 +3657,6 @@
           <t>not_mapped</t>
         </is>
       </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>not_mapped</t>
-        </is>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3802,11 +3699,6 @@
           <t>not_mapped</t>
         </is>
       </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>not_mapped</t>
-        </is>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -3849,11 +3741,6 @@
           <t>not_mapped</t>
         </is>
       </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>not_mapped</t>
-        </is>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -3896,11 +3783,6 @@
           <t>not_mapped</t>
         </is>
       </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>not_mapped</t>
-        </is>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -3943,11 +3825,6 @@
           <t>not_mapped</t>
         </is>
       </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>not_mapped</t>
-        </is>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -3990,11 +3867,6 @@
           <t>not_mapped</t>
         </is>
       </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>not_mapped</t>
-        </is>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -4037,11 +3909,6 @@
           <t>not_mapped</t>
         </is>
       </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>not_mapped</t>
-        </is>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -4084,11 +3951,6 @@
           <t>not_mapped</t>
         </is>
       </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>not_mapped</t>
-        </is>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -4131,11 +3993,6 @@
           <t>MDR</t>
         </is>
       </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>MDR</t>
-        </is>
-      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -4178,11 +4035,6 @@
           <t>8716948001017</t>
         </is>
       </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>8716948001017</t>
-        </is>
-      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -4197,37 +4049,32 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
+          <t>NLPROTOC-OLTE-STEM-1000-000000000000</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
           <t>NLPROTOC-OLTE-STEM-2000-000000000000</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>NLPROTOC-OLTE-STEM-3000-000000000000</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>NLPROTOC-OLTE-STEM-4000-000000000000</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>NLPROTOC-OLTE-STEM-5000-000000000000</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>NLPROTOC-OLTE-STEM-6000-000000000000</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>NLPROTOC-OLTE-STEM-1000-000000000000</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>NLPROTOC-OLTE-STEM-1100-000000000000</t>
         </is>
       </c>
     </row>
@@ -4272,11 +4119,6 @@
           <t>023</t>
         </is>
       </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>023</t>
-        </is>
-      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -4319,11 +4161,6 @@
           <t>9d45a26ffb6</t>
         </is>
       </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>9d45a26ffb6</t>
-        </is>
-      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -4366,11 +4203,6 @@
           <t>871687120000020002</t>
         </is>
       </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>871687120000020002</t>
-        </is>
-      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -4413,11 +4245,6 @@
           <t>8716948001017</t>
         </is>
       </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>8716948001017</t>
-        </is>
-      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -4460,11 +4287,6 @@
           <t>MDR</t>
         </is>
       </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>MDR</t>
-        </is>
-      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -4507,11 +4329,6 @@
           <t>871692100000010083</t>
         </is>
       </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>871692100000010083</t>
-        </is>
-      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -4554,11 +4371,6 @@
           <t>not_mapped</t>
         </is>
       </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>not_mapped</t>
-        </is>
-      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -4601,11 +4413,6 @@
           <t>not_mapped</t>
         </is>
       </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>not_mapped</t>
-        </is>
-      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -4640,17 +4447,12 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
+          <t>2021-03-01T22:00:00Z</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
           <t>2021-03-02T22:00:00Z</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>2021-03-01T22:00:00Z</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>2021-03-01T22:00:00Z</t>
         </is>
       </c>
     </row>
@@ -4687,17 +4489,12 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
+          <t>2021-03-02T22:00:00Z</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
           <t>2021-03-01T22:00:00Z</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>2021-03-02T22:00:00Z</t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>2021-03-02T22:00:00Z</t>
         </is>
       </c>
     </row>
@@ -4742,11 +4539,6 @@
           <t>load_from_values_file</t>
         </is>
       </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>load_from_values_file</t>
-        </is>
-      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -4789,11 +4581,6 @@
           <t>load_from_values_file</t>
         </is>
       </c>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>load_from_values_file</t>
-        </is>
-      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -4836,11 +4623,6 @@
           <t>load_from_values_file</t>
         </is>
       </c>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>load_from_values_file</t>
-        </is>
-      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -4883,11 +4665,6 @@
           <t>load_from_values_file</t>
         </is>
       </c>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>load_from_values_file</t>
-        </is>
-      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -4930,11 +4707,6 @@
           <t>load_from_values_file</t>
         </is>
       </c>
-      <c r="I40" t="inlineStr">
-        <is>
-          <t>load_from_values_file</t>
-        </is>
-      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -4977,11 +4749,6 @@
           <t>load_from_values_file</t>
         </is>
       </c>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>load_from_values_file</t>
-        </is>
-      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -5024,11 +4791,6 @@
           <t>load_from_values_file</t>
         </is>
       </c>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>load_from_values_file</t>
-        </is>
-      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -5071,11 +4833,6 @@
           <t>load_from_values_file</t>
         </is>
       </c>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>load_from_values_file</t>
-        </is>
-      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -5118,11 +4875,6 @@
           <t>not_mapped</t>
         </is>
       </c>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>not_mapped</t>
-        </is>
-      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -5165,11 +4917,6 @@
           <t>not_mapped</t>
         </is>
       </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>not_mapped</t>
-        </is>
-      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -5212,11 +4959,6 @@
           <t>not_mapped</t>
         </is>
       </c>
-      <c r="I46" t="inlineStr">
-        <is>
-          <t>not_mapped</t>
-        </is>
-      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -5255,11 +4997,6 @@
         </is>
       </c>
       <c r="H47" t="inlineStr">
-        <is>
-          <t>not_mapped</t>
-        </is>
-      </c>
-      <c r="I47" t="inlineStr">
         <is>
           <t>not_mapped</t>
         </is>
@@ -5278,7 +5015,6 @@
       <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr"/>
-      <c r="I48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -5321,11 +5057,6 @@
           <t>xml\cases\MeasurementSeriesNotification</t>
         </is>
       </c>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>xml\cases\MeasurementSeriesNotification</t>
-        </is>
-      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -5340,37 +5071,32 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
+          <t>Error Message 1.xml</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
           <t>Error Message 2.xml</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>Error Message 3.xml</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>Error Message 4.xml</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>Error Message 5.xml</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
+      <c r="H50" t="inlineStr">
         <is>
           <t>Error Message 6.xml</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>Error Message 1_0.xml</t>
-        </is>
-      </c>
-      <c r="I50" t="inlineStr">
-        <is>
-          <t>Error Message 1_1.xml</t>
         </is>
       </c>
     </row>
@@ -5387,37 +5113,32 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
+          <t>normal_day_error_676</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
           <t>normal_day_error_678</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>normal_day_error_684</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>normal_day_error_672</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>normal_day</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
+      <c r="H51" t="inlineStr">
         <is>
           <t>normal_day</t>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>normal_day_error_676</t>
-        </is>
-      </c>
-      <c r="I51" t="inlineStr">
-        <is>
-          <t>normal_day_error_676</t>
         </is>
       </c>
     </row>
@@ -5427,29 +5148,40 @@
           <t>error code</t>
         </is>
       </c>
-      <c r="B52" t="n">
-        <v>0</v>
-      </c>
-      <c r="C52" t="n">
-        <v>678</v>
-      </c>
-      <c r="D52" t="n">
-        <v>684</v>
-      </c>
-      <c r="E52" t="n">
-        <v>672</v>
-      </c>
-      <c r="F52" t="n">
-        <v>657</v>
-      </c>
-      <c r="G52" t="n">
-        <v>661</v>
-      </c>
-      <c r="H52" t="n">
-        <v>676</v>
-      </c>
-      <c r="I52" t="n">
-        <v>676</v>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>676</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>678</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>684</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>672</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>657</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>661</t>
+        </is>
       </c>
     </row>
     <row r="53">
@@ -5465,37 +5197,32 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
+          <t>NLPROTOC-OLTE-STEM-1000-000000000000</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
           <t>NLPROTOC-OLTE-STEM-2000-000000000000</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>NLPROTOC-OLTE-STEM-3000-000000000000</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>NLPROTOC-OLTE-STEM-4000-000000000000</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>NLPROTOC-OLTE-STEM-5000-000000000000</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
+      <c r="H53" t="inlineStr">
         <is>
           <t>NLPROTOC-OLTE-STEM-6000-000000000000</t>
-        </is>
-      </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>NLPROTOC-OLTE-STEM-1000-000000000000</t>
-        </is>
-      </c>
-      <c r="I53" t="inlineStr">
-        <is>
-          <t>NLPROTOC-OLTE-STEM-1100-000000000000</t>
         </is>
       </c>
     </row>
@@ -5532,17 +5259,12 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
+          <t>2021-03-01-22:00:00</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
           <t>2021-03-02-22:00:00</t>
-        </is>
-      </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>2021-03-01-22:00:00</t>
-        </is>
-      </c>
-      <c r="I54" t="inlineStr">
-        <is>
-          <t>2021-03-01-22:00:00</t>
         </is>
       </c>
     </row>
@@ -5579,17 +5301,12 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
+          <t>2021-03-02-22:00:00</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
           <t>2021-03-01-22:00:00</t>
-        </is>
-      </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>2021-03-02-22:00:00</t>
-        </is>
-      </c>
-      <c r="I55" t="inlineStr">
-        <is>
-          <t>2021-03-02-22:00:00</t>
         </is>
       </c>
     </row>
@@ -5634,11 +5351,6 @@
           <t>8716948001000</t>
         </is>
       </c>
-      <c r="I56" t="inlineStr">
-        <is>
-          <t>8716948001000</t>
-        </is>
-      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -5681,11 +5393,6 @@
           <t>871687120000020002</t>
         </is>
       </c>
-      <c r="I57" t="inlineStr">
-        <is>
-          <t>871687120000020002</t>
-        </is>
-      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -5728,11 +5435,6 @@
           <t>load_from_file_1</t>
         </is>
       </c>
-      <c r="I58" t="inlineStr">
-        <is>
-          <t>load_from_file_1</t>
-        </is>
-      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -5771,11 +5473,6 @@
         </is>
       </c>
       <c r="H59" t="inlineStr">
-        <is>
-          <t>load_from_file</t>
-        </is>
-      </c>
-      <c r="I59" t="inlineStr">
         <is>
           <t>load_from_file</t>
         </is>
@@ -5794,7 +5491,6 @@
       <c r="F60" t="inlineStr"/>
       <c r="G60" t="inlineStr"/>
       <c r="H60" t="inlineStr"/>
-      <c r="I60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -5827,17 +5523,12 @@
           <t>supplier, reciver, sender</t>
         </is>
       </c>
-      <c r="G61" t="inlineStr"/>
-      <c r="H61" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>supplier, reciver, sender</t>
         </is>
       </c>
-      <c r="I61" t="inlineStr">
-        <is>
-          <t>supplier, reciver, sender</t>
-        </is>
-      </c>
+      <c r="H61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -5856,7 +5547,6 @@
       <c r="F62" t="inlineStr"/>
       <c r="G62" t="inlineStr"/>
       <c r="H62" t="inlineStr"/>
-      <c r="I62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -5875,7 +5565,6 @@
       <c r="F63" t="inlineStr"/>
       <c r="G63" t="inlineStr"/>
       <c r="H63" t="inlineStr"/>
-      <c r="I63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -5894,7 +5583,6 @@
       <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr"/>
       <c r="H64" t="inlineStr"/>
-      <c r="I64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -5910,14 +5598,13 @@
       <c r="C65" t="inlineStr"/>
       <c r="D65" t="inlineStr"/>
       <c r="E65" t="inlineStr"/>
-      <c r="F65" t="inlineStr">
+      <c r="F65" t="inlineStr"/>
+      <c r="G65" t="inlineStr">
         <is>
           <t>demolished</t>
         </is>
       </c>
-      <c r="G65" t="inlineStr"/>
       <c r="H65" t="inlineStr"/>
-      <c r="I65" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/excel/message_details/message_details_MeasurementSeriesNotification.xlsx
+++ b/excel/message_details/message_details_MeasurementSeriesNotification.xlsx
@@ -2927,32 +2927,37 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>supplier, reciver, sender</t>
+          <t>supplier, reciver, sender, operator</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>supplier, reciver, sender</t>
+          <t>supplier, reciver, sender, operator</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>supplier, reciver, sender</t>
+          <t>supplier, reciver, sender, operator</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>supplier, reciver, sender</t>
+          <t>supplier, reciver, sender, operator</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>supplier, reciver, sender</t>
+          <t>supplier, reciver, sender, operator</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>supplier, reciver, sender</t>
+          <t>supplier, reciver, sender, operator</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>supplier, reciver, sender, operator</t>
         </is>
       </c>
     </row>
@@ -2964,7 +2969,37 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>net areas_test</t>
+          <t>correct net area</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>correct net area</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>correct net area</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>correct net area</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>correct net area</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>correct net area</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>correct net area</t>
         </is>
       </c>
     </row>
@@ -2976,7 +3011,37 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>grid_points_test</t>
+          <t>correct gridpoint</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>correct gridpoint</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>correct gridpoint</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>correct gridpoint</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>correct gridpoint</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>correct gridpoint</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>correct gridpoint</t>
         </is>
       </c>
     </row>
@@ -2988,7 +3053,37 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>supplyContracts_test</t>
+          <t>correct supply contract</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>correct supply contract</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>correct supply contract</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>correct supply contract</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>correct supply contract</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>correct supply contract</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>correct supply contract</t>
         </is>
       </c>
     </row>
@@ -3000,12 +3095,37 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>connections_test</t>
+          <t>correct connections</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>correct connections</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>correct connections</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>correct connections</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>correct connections</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
           <t>demolished</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>correct connections</t>
         </is>
       </c>
     </row>
@@ -5500,35 +5620,39 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>supplier, reciver, sender</t>
+          <t>supplier, reciver, sender, operator</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>supplier, reciver, sender</t>
+          <t>supplier, reciver, sender, operator</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>supplier, reciver, sender</t>
+          <t>supplier, reciver, sender, operator</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>supplier, reciver, sender</t>
+          <t>supplier, reciver, sender, operator</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>supplier, reciver, sender</t>
+          <t>supplier, reciver, sender, operator</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>supplier, reciver, sender</t>
-        </is>
-      </c>
-      <c r="H61" t="inlineStr"/>
+          <t>supplier, reciver, sender, operator</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>supplier, reciver, sender, operator</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -5538,15 +5662,39 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>net areas_test</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr"/>
-      <c r="D62" t="inlineStr"/>
-      <c r="E62" t="inlineStr"/>
-      <c r="F62" t="inlineStr"/>
-      <c r="G62" t="inlineStr"/>
-      <c r="H62" t="inlineStr"/>
+          <t>correct net area</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>correct net area</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>correct net area</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>correct net area</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>correct net area</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>correct net area</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>correct net area</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -5556,15 +5704,39 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>grid_points_test</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr"/>
-      <c r="D63" t="inlineStr"/>
-      <c r="E63" t="inlineStr"/>
-      <c r="F63" t="inlineStr"/>
-      <c r="G63" t="inlineStr"/>
-      <c r="H63" t="inlineStr"/>
+          <t>correct gridpoint</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>correct gridpoint</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>correct gridpoint</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>correct gridpoint</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>correct gridpoint</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>correct gridpoint</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>correct gridpoint</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -5574,15 +5746,39 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>supplyContracts_test</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr"/>
-      <c r="D64" t="inlineStr"/>
-      <c r="E64" t="inlineStr"/>
-      <c r="F64" t="inlineStr"/>
-      <c r="G64" t="inlineStr"/>
-      <c r="H64" t="inlineStr"/>
+          <t>correct supply contract</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>correct supply contract</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>correct supply contract</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>correct supply contract</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>correct supply contract</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>correct supply contract</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>correct supply contract</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -5592,19 +5788,39 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>connections_test</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr"/>
-      <c r="D65" t="inlineStr"/>
-      <c r="E65" t="inlineStr"/>
-      <c r="F65" t="inlineStr"/>
+          <t>correct connections</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>correct connections</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>correct connections</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>correct connections</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>correct connections</t>
+        </is>
+      </c>
       <c r="G65" t="inlineStr">
         <is>
           <t>demolished</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr"/>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>correct connections</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/excel/message_details/message_details_MeasurementSeriesNotification.xlsx
+++ b/excel/message_details/message_details_MeasurementSeriesNotification.xlsx
@@ -2,24 +2,33 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
+  <bookViews>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+  </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="compressed cases" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="decompressed cases" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="12"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <b val="1"/>
+      <sz val="12"/>
     </font>
     <font>
       <b val="1"/>
@@ -33,12 +42,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -51,9 +75,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -458,7 +485,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H66"/>
+  <dimension ref="A1:I66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,49 +494,54 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>XML ELEMENT PATH</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>DEFAULT VALUES</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>Error Message 1</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>Error Message 2</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>Error Message 3</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>Error Message 4</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
         <is>
           <t>Error Message 5</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>Error Message 6</t>
         </is>
       </c>
+      <c r="I1" s="2" t="inlineStr">
+        <is>
+          <t>Error Message 7</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr">
+      <c r="A2" s="2" t="inlineStr">
         <is>
           <t>MeasurementSeriesNotification/EDSNBusinessDocumentHeader/ContentHash</t>
         </is>
@@ -549,9 +581,14 @@
           <t>not_mapped</t>
         </is>
       </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>not_mapped</t>
+        </is>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="inlineStr">
+      <c r="A3" s="2" t="inlineStr">
         <is>
           <t>MeasurementSeriesNotification/EDSNBusinessDocumentHeader/ConversationID</t>
         </is>
@@ -591,9 +628,14 @@
           <t>not_mapped</t>
         </is>
       </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>not_mapped</t>
+        </is>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="inlineStr">
+      <c r="A4" s="2" t="inlineStr">
         <is>
           <t>MeasurementSeriesNotification/EDSNBusinessDocumentHeader/CorrelationID</t>
         </is>
@@ -633,9 +675,14 @@
           <t>not_mapped</t>
         </is>
       </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>not_mapped</t>
+        </is>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="inlineStr">
+      <c r="A5" s="2" t="inlineStr">
         <is>
           <t>MeasurementSeriesNotification/EDSNBusinessDocumentHeader/CreationTimestamp</t>
         </is>
@@ -675,9 +722,14 @@
           <t>2021-03-03T22:00:00Z</t>
         </is>
       </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>2021-03-03T22:00:00Z</t>
+        </is>
+      </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="2" t="inlineStr">
         <is>
           <t>MeasurementSeriesNotification/EDSNBusinessDocumentHeader/DocumentID</t>
         </is>
@@ -717,9 +769,14 @@
           <t>not_mapped</t>
         </is>
       </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>not_mapped</t>
+        </is>
+      </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="inlineStr">
+      <c r="A7" s="2" t="inlineStr">
         <is>
           <t>MeasurementSeriesNotification/EDSNBusinessDocumentHeader/ExpiresAt</t>
         </is>
@@ -759,9 +816,14 @@
           <t>not_mapped</t>
         </is>
       </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>not_mapped</t>
+        </is>
+      </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
+      <c r="A8" s="2" t="inlineStr">
         <is>
           <t>MeasurementSeriesNotification/EDSNBusinessDocumentHeader/MessageID</t>
         </is>
@@ -801,9 +863,14 @@
           <t>Generate_message_ID</t>
         </is>
       </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Generate_message_ID</t>
+        </is>
+      </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="inlineStr">
+      <c r="A9" s="2" t="inlineStr">
         <is>
           <t>MeasurementSeriesNotification/EDSNBusinessDocumentHeader/ProcessTypeID</t>
         </is>
@@ -843,9 +910,14 @@
           <t>N10</t>
         </is>
       </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>N10</t>
+        </is>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
+      <c r="A10" s="2" t="inlineStr">
         <is>
           <t>MeasurementSeriesNotification/EDSNBusinessDocumentHeader/RepeatedRequest</t>
         </is>
@@ -885,9 +957,14 @@
           <t>not_mapped</t>
         </is>
       </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>not_mapped</t>
+        </is>
+      </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="inlineStr">
+      <c r="A11" s="2" t="inlineStr">
         <is>
           <t>MeasurementSeriesNotification/EDSNBusinessDocumentHeader/TestRequest</t>
         </is>
@@ -927,9 +1004,14 @@
           <t>not_mapped</t>
         </is>
       </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>not_mapped</t>
+        </is>
+      </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="2" t="inlineStr">
         <is>
           <t>MeasurementSeriesNotification/EDSNBusinessDocumentHeader/Destination/Receiver/Authority</t>
         </is>
@@ -969,9 +1051,14 @@
           <t>not_mapped</t>
         </is>
       </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>not_mapped</t>
+        </is>
+      </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="inlineStr">
+      <c r="A13" s="2" t="inlineStr">
         <is>
           <t>MeasurementSeriesNotification/EDSNBusinessDocumentHeader/Destination/Receiver/ContactTypeIdentifier</t>
         </is>
@@ -1011,9 +1098,14 @@
           <t>DDK</t>
         </is>
       </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>DDK</t>
+        </is>
+      </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
+      <c r="A14" s="2" t="inlineStr">
         <is>
           <t>MeasurementSeriesNotification/EDSNBusinessDocumentHeader/Destination/Receiver/ReceiverID</t>
         </is>
@@ -1053,9 +1145,14 @@
           <t>8716948001000</t>
         </is>
       </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>8716948001000</t>
+        </is>
+      </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="inlineStr">
+      <c r="A15" s="2" t="inlineStr">
         <is>
           <t>MeasurementSeriesNotification/EDSNBusinessDocumentHeader/Destination/Service/ServiceMethod</t>
         </is>
@@ -1095,9 +1192,14 @@
           <t>not_mapped</t>
         </is>
       </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>not_mapped</t>
+        </is>
+      </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
+      <c r="A16" s="2" t="inlineStr">
         <is>
           <t>MeasurementSeriesNotification/EDSNBusinessDocumentHeader/Destination/Service/ServiceName</t>
         </is>
@@ -1137,9 +1239,14 @@
           <t>not_mapped</t>
         </is>
       </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>not_mapped</t>
+        </is>
+      </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="inlineStr">
+      <c r="A17" s="2" t="inlineStr">
         <is>
           <t>MeasurementSeriesNotification/EDSNBusinessDocumentHeader/Manifest/NumberofItems</t>
         </is>
@@ -1179,9 +1286,14 @@
           <t>not_mapped</t>
         </is>
       </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>not_mapped</t>
+        </is>
+      </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="inlineStr">
+      <c r="A18" s="2" t="inlineStr">
         <is>
           <t>MeasurementSeriesNotification/EDSNBusinessDocumentHeader/Manifest/ManifestItem/Description</t>
         </is>
@@ -1221,9 +1333,14 @@
           <t>not_mapped</t>
         </is>
       </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>not_mapped</t>
+        </is>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="inlineStr">
+      <c r="A19" s="2" t="inlineStr">
         <is>
           <t>MeasurementSeriesNotification/EDSNBusinessDocumentHeader/Manifest/ManifestItem/LanguageCode</t>
         </is>
@@ -1263,9 +1380,14 @@
           <t>not_mapped</t>
         </is>
       </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>not_mapped</t>
+        </is>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
+      <c r="A20" s="2" t="inlineStr">
         <is>
           <t>MeasurementSeriesNotification/EDSNBusinessDocumentHeader/Manifest/ManifestItem/MimeTypeQualifierCode</t>
         </is>
@@ -1305,9 +1427,14 @@
           <t>not_mapped</t>
         </is>
       </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>not_mapped</t>
+        </is>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="inlineStr">
+      <c r="A21" s="2" t="inlineStr">
         <is>
           <t>MeasurementSeriesNotification/EDSNBusinessDocumentHeader/Manifest/ManifestItem/UniformResourceIdentifier</t>
         </is>
@@ -1347,9 +1474,14 @@
           <t>not_mapped</t>
         </is>
       </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>not_mapped</t>
+        </is>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="inlineStr">
+      <c r="A22" s="2" t="inlineStr">
         <is>
           <t>MeasurementSeriesNotification/EDSNBusinessDocumentHeader/Source/Authority</t>
         </is>
@@ -1389,9 +1521,14 @@
           <t>not_mapped</t>
         </is>
       </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>not_mapped</t>
+        </is>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="inlineStr">
+      <c r="A23" s="2" t="inlineStr">
         <is>
           <t>MeasurementSeriesNotification/EDSNBusinessDocumentHeader/Source/ContactTypeIdentifier</t>
         </is>
@@ -1431,9 +1568,14 @@
           <t>MDR</t>
         </is>
       </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>MDR</t>
+        </is>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
+      <c r="A24" s="2" t="inlineStr">
         <is>
           <t>MeasurementSeriesNotification/EDSNBusinessDocumentHeader/Source/SenderID</t>
         </is>
@@ -1473,9 +1615,14 @@
           <t>8716948001017</t>
         </is>
       </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>8716948001017</t>
+        </is>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="inlineStr">
+      <c r="A25" s="2" t="inlineStr">
         <is>
           <t>MeasurementSeriesNotification/Measurement_Series/mRID</t>
         </is>
@@ -1515,9 +1662,14 @@
           <t>Generate_message_ID</t>
         </is>
       </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>Generate_message_ID</t>
+        </is>
+      </c>
     </row>
     <row r="26">
-      <c r="A26" s="1" t="inlineStr">
+      <c r="A26" s="2" t="inlineStr">
         <is>
           <t>MeasurementSeriesNotification/Measurement_Series/product</t>
         </is>
@@ -1557,9 +1709,14 @@
           <t>023</t>
         </is>
       </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>023</t>
+        </is>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" s="1" t="inlineStr">
+      <c r="A27" s="2" t="inlineStr">
         <is>
           <t>MeasurementSeriesNotification/Measurement_Series/referenceRevisionRequest_mRID</t>
         </is>
@@ -1599,9 +1756,14 @@
           <t>9d45a26ffb6</t>
         </is>
       </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>9d45a26ffb6</t>
+        </is>
+      </c>
     </row>
     <row r="28">
-      <c r="A28" s="1" t="inlineStr">
+      <c r="A28" s="2" t="inlineStr">
         <is>
           <t>MeasurementSeriesNotification/Measurement_Series/MarketEvaluationPoint/mRID</t>
         </is>
@@ -1641,9 +1803,14 @@
           <t>871687120000020002</t>
         </is>
       </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>871687120000020002</t>
+        </is>
+      </c>
     </row>
     <row r="29">
-      <c r="A29" s="1" t="inlineStr">
+      <c r="A29" s="2" t="inlineStr">
         <is>
           <t>MeasurementSeriesNotification/Measurement_Series/MarketParticipant/mRID</t>
         </is>
@@ -1683,9 +1850,14 @@
           <t>8716948001017</t>
         </is>
       </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>8716948001017</t>
+        </is>
+      </c>
     </row>
     <row r="30">
-      <c r="A30" s="1" t="inlineStr">
+      <c r="A30" s="2" t="inlineStr">
         <is>
           <t>MeasurementSeriesNotification/Measurement_Series/MarketParticipant/MarketRole/type</t>
         </is>
@@ -1725,9 +1897,14 @@
           <t>MDR</t>
         </is>
       </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>MDR</t>
+        </is>
+      </c>
     </row>
     <row r="31">
-      <c r="A31" s="1" t="inlineStr">
+      <c r="A31" s="2" t="inlineStr">
         <is>
           <t>MeasurementSeriesNotification/Measurement_Series/Domain/mRID</t>
         </is>
@@ -1767,9 +1944,14 @@
           <t>871692100000010083</t>
         </is>
       </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>871692100000010083</t>
+        </is>
+      </c>
     </row>
     <row r="32">
-      <c r="A32" s="1" t="inlineStr">
+      <c r="A32" s="2" t="inlineStr">
         <is>
           <t>MeasurementSeriesNotification/Measurement_Series/Domain/sourceDomain</t>
         </is>
@@ -1809,9 +1991,14 @@
           <t>not_mapped</t>
         </is>
       </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>not_mapped</t>
+        </is>
+      </c>
     </row>
     <row r="33">
-      <c r="A33" s="1" t="inlineStr">
+      <c r="A33" s="2" t="inlineStr">
         <is>
           <t>MeasurementSeriesNotification/Measurement_Series/Domain/sinkDomain</t>
         </is>
@@ -1851,9 +2038,14 @@
           <t>not_mapped</t>
         </is>
       </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>not_mapped</t>
+        </is>
+      </c>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="inlineStr">
+      <c r="A34" s="2" t="inlineStr">
         <is>
           <t>MeasurementSeriesNotification/Measurement_Series/DateAndOrTime/startDateTime</t>
         </is>
@@ -1893,9 +2085,14 @@
           <t>2021-03-02T22:00:00Z</t>
         </is>
       </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>2021-03-01T22:00:00Z</t>
+        </is>
+      </c>
     </row>
     <row r="35">
-      <c r="A35" s="1" t="inlineStr">
+      <c r="A35" s="2" t="inlineStr">
         <is>
           <t>MeasurementSeriesNotification/Measurement_Series/DateAndOrTime/endDateTime</t>
         </is>
@@ -1935,9 +2132,14 @@
           <t>2021-03-01T22:00:00Z</t>
         </is>
       </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>2021-03-02T22:00:00Z</t>
+        </is>
+      </c>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="inlineStr">
+      <c r="A36" s="2" t="inlineStr">
         <is>
           <t>MeasurementSeriesNotification/Measurement_Series/Detail_Series/resolution</t>
         </is>
@@ -1977,9 +2179,14 @@
           <t>load_from_values_file</t>
         </is>
       </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>load_from_values_file</t>
+        </is>
+      </c>
     </row>
     <row r="37">
-      <c r="A37" s="1" t="inlineStr">
+      <c r="A37" s="2" t="inlineStr">
         <is>
           <t>MeasurementSeriesNotification/Measurement_Series/Detail_Series/Product/identification</t>
         </is>
@@ -2019,9 +2226,14 @@
           <t>load_from_values_file</t>
         </is>
       </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>load_from_values_file</t>
+        </is>
+      </c>
     </row>
     <row r="38">
-      <c r="A38" s="1" t="inlineStr">
+      <c r="A38" s="2" t="inlineStr">
         <is>
           <t>MeasurementSeriesNotification/Measurement_Series/Detail_Series/Product/measureUnit</t>
         </is>
@@ -2061,9 +2273,14 @@
           <t>load_from_values_file</t>
         </is>
       </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>load_from_values_file</t>
+        </is>
+      </c>
     </row>
     <row r="39">
-      <c r="A39" s="1" t="inlineStr">
+      <c r="A39" s="2" t="inlineStr">
         <is>
           <t>MeasurementSeriesNotification/Measurement_Series/Detail_Series/FlowDirection/direction</t>
         </is>
@@ -2103,9 +2320,14 @@
           <t>load_from_values_file</t>
         </is>
       </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>load_from_values_file</t>
+        </is>
+      </c>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="inlineStr">
+      <c r="A40" s="2" t="inlineStr">
         <is>
           <t>MeasurementSeriesNotification/Measurement_Series/Detail_Series/Point/position</t>
         </is>
@@ -2145,9 +2367,14 @@
           <t>load_from_values_file</t>
         </is>
       </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>load_from_values_file</t>
+        </is>
+      </c>
     </row>
     <row r="41">
-      <c r="A41" s="1" t="inlineStr">
+      <c r="A41" s="2" t="inlineStr">
         <is>
           <t>MeasurementSeriesNotification/Measurement_Series/Detail_Series/Point/quantity</t>
         </is>
@@ -2187,9 +2414,14 @@
           <t>load_from_values_file</t>
         </is>
       </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>load_from_values_file</t>
+        </is>
+      </c>
     </row>
     <row r="42">
-      <c r="A42" s="1" t="inlineStr">
+      <c r="A42" s="2" t="inlineStr">
         <is>
           <t>MeasurementSeriesNotification/Measurement_Series/Detail_Series/Point/origin</t>
         </is>
@@ -2229,9 +2461,14 @@
           <t>load_from_values_file</t>
         </is>
       </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>load_from_values_file</t>
+        </is>
+      </c>
     </row>
     <row r="43">
-      <c r="A43" s="1" t="inlineStr">
+      <c r="A43" s="2" t="inlineStr">
         <is>
           <t>MeasurementSeriesNotification/Measurement_Series/Detail_Series/Point/validationStatus</t>
         </is>
@@ -2271,9 +2508,14 @@
           <t>load_from_values_file</t>
         </is>
       </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>load_from_values_file</t>
+        </is>
+      </c>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="inlineStr">
+      <c r="A44" s="2" t="inlineStr">
         <is>
           <t>MeasurementSeriesNotification/Measurement_Series/Detail_Series/Point/repairMethod</t>
         </is>
@@ -2313,9 +2555,14 @@
           <t>not_mapped</t>
         </is>
       </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>not_mapped</t>
+        </is>
+      </c>
     </row>
     <row r="45">
-      <c r="A45" s="1" t="inlineStr">
+      <c r="A45" s="2" t="inlineStr">
         <is>
           <t>MeasurementSeriesNotification/Measurement_Series/RestVolume_Quantity/quantity</t>
         </is>
@@ -2355,9 +2602,14 @@
           <t>not_mapped</t>
         </is>
       </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>not_mapped</t>
+        </is>
+      </c>
     </row>
     <row r="46">
-      <c r="A46" s="1" t="inlineStr">
+      <c r="A46" s="2" t="inlineStr">
         <is>
           <t>MeasurementSeriesNotification/Measurement_Series/RestVolume_Quantity/Product</t>
         </is>
@@ -2397,9 +2649,14 @@
           <t>not_mapped</t>
         </is>
       </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>not_mapped</t>
+        </is>
+      </c>
     </row>
     <row r="47">
-      <c r="A47" s="1" t="inlineStr">
+      <c r="A47" s="2" t="inlineStr">
         <is>
           <t>MeasurementSeriesNotification/Measurement_Series/RestVolume_Quantity/FlowDirection</t>
         </is>
@@ -2439,19 +2696,24 @@
           <t>not_mapped</t>
         </is>
       </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>not_mapped</t>
+        </is>
+      </c>
     </row>
     <row r="48">
-      <c r="A48" s="1" t="inlineStr"/>
+      <c r="A48" s="2" t="inlineStr"/>
     </row>
     <row r="49">
-      <c r="A49" s="1" t="inlineStr">
+      <c r="A49" s="2" t="inlineStr">
         <is>
           <t>info para json</t>
         </is>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="1" t="inlineStr">
+      <c r="A50" s="2" t="inlineStr">
         <is>
           <t>message path</t>
         </is>
@@ -2491,9 +2753,14 @@
           <t>generate_message_path</t>
         </is>
       </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>generate_message_path</t>
+        </is>
+      </c>
     </row>
     <row r="51">
-      <c r="A51" s="1" t="inlineStr">
+      <c r="A51" s="2" t="inlineStr">
         <is>
           <t>message name</t>
         </is>
@@ -2533,9 +2800,14 @@
           <t>generate_message_name</t>
         </is>
       </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>generate_message_name</t>
+        </is>
+      </c>
     </row>
     <row r="52">
-      <c r="A52" s="1" t="inlineStr">
+      <c r="A52" s="2" t="inlineStr">
         <is>
           <t>values file</t>
         </is>
@@ -2575,9 +2847,14 @@
           <t>normal_day</t>
         </is>
       </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>normal_day</t>
+        </is>
+      </c>
     </row>
     <row r="53">
-      <c r="A53" s="1" t="inlineStr">
+      <c r="A53" s="2" t="inlineStr">
         <is>
           <t>error code</t>
         </is>
@@ -2617,9 +2894,14 @@
           <t>661</t>
         </is>
       </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="54">
-      <c r="A54" s="1" t="inlineStr">
+      <c r="A54" s="2" t="inlineStr">
         <is>
           <t>Message ID</t>
         </is>
@@ -2659,9 +2941,14 @@
           <t>Generate_message_ID</t>
         </is>
       </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>Generate_message_ID</t>
+        </is>
+      </c>
     </row>
     <row r="55">
-      <c r="A55" s="1" t="inlineStr">
+      <c r="A55" s="2" t="inlineStr">
         <is>
           <t>startDate</t>
         </is>
@@ -2701,9 +2988,14 @@
           <t>2021-03-02-22:00:00</t>
         </is>
       </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>2021-03-01-22:00:00</t>
+        </is>
+      </c>
     </row>
     <row r="56">
-      <c r="A56" s="1" t="inlineStr">
+      <c r="A56" s="2" t="inlineStr">
         <is>
           <t>endDate</t>
         </is>
@@ -2743,9 +3035,14 @@
           <t>2021-03-01-22:00:00</t>
         </is>
       </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>2021-03-02-22:00:00</t>
+        </is>
+      </c>
     </row>
     <row r="57">
-      <c r="A57" s="1" t="inlineStr">
+      <c r="A57" s="2" t="inlineStr">
         <is>
           <t>receiver</t>
         </is>
@@ -2785,9 +3082,14 @@
           <t>8716948001000</t>
         </is>
       </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>8716948001000</t>
+        </is>
+      </c>
     </row>
     <row r="58">
-      <c r="A58" s="1" t="inlineStr">
+      <c r="A58" s="2" t="inlineStr">
         <is>
           <t>grid_point</t>
         </is>
@@ -2827,9 +3129,14 @@
           <t>871687120000020002</t>
         </is>
       </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>871687120000020002</t>
+        </is>
+      </c>
     </row>
     <row r="59">
-      <c r="A59" s="1" t="inlineStr">
+      <c r="A59" s="2" t="inlineStr">
         <is>
           <t>direction</t>
         </is>
@@ -2869,9 +3176,14 @@
           <t>load_from_file_1</t>
         </is>
       </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>load_from_file_1</t>
+        </is>
+      </c>
     </row>
     <row r="60">
-      <c r="A60" s="1" t="inlineStr">
+      <c r="A60" s="2" t="inlineStr">
         <is>
           <t>timeSeries</t>
         </is>
@@ -2911,16 +3223,21 @@
           <t>load_from_file</t>
         </is>
       </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>load_from_file</t>
+        </is>
+      </c>
     </row>
     <row r="61">
-      <c r="A61" s="1" t="inlineStr">
+      <c r="A61" s="2" t="inlineStr">
         <is>
           <t>struct</t>
         </is>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="1" t="inlineStr">
+      <c r="A62" s="2" t="inlineStr">
         <is>
           <t>struct_market_paries</t>
         </is>
@@ -2960,9 +3277,14 @@
           <t>supplier, reciver, sender, operator</t>
         </is>
       </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>supplier, reciver, sender, operator</t>
+        </is>
+      </c>
     </row>
     <row r="63">
-      <c r="A63" s="1" t="inlineStr">
+      <c r="A63" s="2" t="inlineStr">
         <is>
           <t>struct_net_areas</t>
         </is>
@@ -3002,9 +3324,14 @@
           <t>correct net area</t>
         </is>
       </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>correct net area</t>
+        </is>
+      </c>
     </row>
     <row r="64">
-      <c r="A64" s="1" t="inlineStr">
+      <c r="A64" s="2" t="inlineStr">
         <is>
           <t>struct_grid_points</t>
         </is>
@@ -3044,9 +3371,14 @@
           <t>correct gridpoint</t>
         </is>
       </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>correct gridpoint</t>
+        </is>
+      </c>
     </row>
     <row r="65">
-      <c r="A65" s="1" t="inlineStr">
+      <c r="A65" s="2" t="inlineStr">
         <is>
           <t>struct_supply_contracts</t>
         </is>
@@ -3086,9 +3418,14 @@
           <t>correct supply contract</t>
         </is>
       </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>correct supply contract</t>
+        </is>
+      </c>
     </row>
     <row r="66">
-      <c r="A66" s="1" t="inlineStr">
+      <c r="A66" s="2" t="inlineStr">
         <is>
           <t>struct_connections</t>
         </is>
@@ -3124,6 +3461,11 @@
         </is>
       </c>
       <c r="H66" t="inlineStr">
+        <is>
+          <t>correct connections</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
         <is>
           <t>correct connections</t>
         </is>
@@ -3140,7 +3482,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H65"/>
+  <dimension ref="A1:I65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3149,44 +3491,49 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>XML ELEMENT PATH</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>DEFAULT VALUES</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>Error Message 1</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>Error Message 2</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>Error Message 3</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>Error Message 4</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
         <is>
           <t>Error Message 5</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>Error Message 6</t>
+        </is>
+      </c>
+      <c r="I1" s="2" t="inlineStr">
+        <is>
+          <t>Error Message 7</t>
         </is>
       </c>
     </row>
@@ -3231,6 +3578,11 @@
           <t>not_mapped</t>
         </is>
       </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>not_mapped</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -3273,6 +3625,11 @@
           <t>not_mapped</t>
         </is>
       </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>not_mapped</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3315,6 +3672,11 @@
           <t>not_mapped</t>
         </is>
       </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>not_mapped</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3357,6 +3719,11 @@
           <t>2021-03-03T22:00:00Z</t>
         </is>
       </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>2021-03-03T22:00:00Z</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -3399,6 +3766,11 @@
           <t>not_mapped</t>
         </is>
       </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>not_mapped</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -3441,6 +3813,11 @@
           <t>not_mapped</t>
         </is>
       </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>not_mapped</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -3483,6 +3860,11 @@
           <t>NLPROTOC-OLTE-STEM-6000-000000000000</t>
         </is>
       </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>NLPROTOC-OLTE-STEM-7000-000000000000</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -3525,6 +3907,11 @@
           <t>N10</t>
         </is>
       </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>N10</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -3567,6 +3954,11 @@
           <t>not_mapped</t>
         </is>
       </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>not_mapped</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -3609,6 +4001,11 @@
           <t>not_mapped</t>
         </is>
       </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>not_mapped</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3651,6 +4048,11 @@
           <t>not_mapped</t>
         </is>
       </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>not_mapped</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3693,6 +4095,11 @@
           <t>DDK</t>
         </is>
       </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>DDK</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3735,6 +4142,11 @@
           <t>8716948001000</t>
         </is>
       </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>8716948001000</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3777,6 +4189,11 @@
           <t>not_mapped</t>
         </is>
       </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>not_mapped</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3819,6 +4236,11 @@
           <t>not_mapped</t>
         </is>
       </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>not_mapped</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -3861,6 +4283,11 @@
           <t>not_mapped</t>
         </is>
       </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>not_mapped</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -3903,6 +4330,11 @@
           <t>not_mapped</t>
         </is>
       </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>not_mapped</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -3945,6 +4377,11 @@
           <t>not_mapped</t>
         </is>
       </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>not_mapped</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -3987,6 +4424,11 @@
           <t>not_mapped</t>
         </is>
       </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>not_mapped</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -4029,6 +4471,11 @@
           <t>not_mapped</t>
         </is>
       </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>not_mapped</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -4071,6 +4518,11 @@
           <t>not_mapped</t>
         </is>
       </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>not_mapped</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -4113,6 +4565,11 @@
           <t>MDR</t>
         </is>
       </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>MDR</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -4155,6 +4612,11 @@
           <t>8716948001017</t>
         </is>
       </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>8716948001017</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -4197,6 +4659,11 @@
           <t>NLPROTOC-OLTE-STEM-6000-000000000000</t>
         </is>
       </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>NLPROTOC-OLTE-STEM-7000-000000000000</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -4239,6 +4706,11 @@
           <t>023</t>
         </is>
       </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>023</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -4281,6 +4753,11 @@
           <t>9d45a26ffb6</t>
         </is>
       </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>9d45a26ffb6</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -4323,6 +4800,11 @@
           <t>871687120000020002</t>
         </is>
       </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>871687120000020002</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -4365,6 +4847,11 @@
           <t>8716948001017</t>
         </is>
       </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>8716948001017</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -4407,6 +4894,11 @@
           <t>MDR</t>
         </is>
       </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>MDR</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -4449,6 +4941,11 @@
           <t>871692100000010083</t>
         </is>
       </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>871692100000010083</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -4491,6 +4988,11 @@
           <t>not_mapped</t>
         </is>
       </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>not_mapped</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -4533,6 +5035,11 @@
           <t>not_mapped</t>
         </is>
       </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>not_mapped</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -4575,6 +5082,11 @@
           <t>2021-03-02T22:00:00Z</t>
         </is>
       </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>2021-03-01T22:00:00Z</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -4617,6 +5129,11 @@
           <t>2021-03-01T22:00:00Z</t>
         </is>
       </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>2021-03-02T22:00:00Z</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -4659,6 +5176,11 @@
           <t>load_from_values_file</t>
         </is>
       </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>load_from_values_file</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -4701,6 +5223,11 @@
           <t>load_from_values_file</t>
         </is>
       </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>load_from_values_file</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -4743,6 +5270,11 @@
           <t>load_from_values_file</t>
         </is>
       </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>load_from_values_file</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -4785,6 +5317,11 @@
           <t>load_from_values_file</t>
         </is>
       </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>load_from_values_file</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -4827,6 +5364,11 @@
           <t>load_from_values_file</t>
         </is>
       </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>load_from_values_file</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -4869,6 +5411,11 @@
           <t>load_from_values_file</t>
         </is>
       </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>load_from_values_file</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -4911,6 +5458,11 @@
           <t>load_from_values_file</t>
         </is>
       </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>load_from_values_file</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -4953,6 +5505,11 @@
           <t>load_from_values_file</t>
         </is>
       </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>load_from_values_file</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -4995,6 +5552,11 @@
           <t>not_mapped</t>
         </is>
       </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>not_mapped</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -5037,6 +5599,11 @@
           <t>not_mapped</t>
         </is>
       </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>not_mapped</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -5079,6 +5646,11 @@
           <t>not_mapped</t>
         </is>
       </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>not_mapped</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -5117,6 +5689,11 @@
         </is>
       </c>
       <c r="H47" t="inlineStr">
+        <is>
+          <t>not_mapped</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
         <is>
           <t>not_mapped</t>
         </is>
@@ -5135,6 +5712,7 @@
       <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr"/>
+      <c r="I48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -5177,6 +5755,11 @@
           <t>xml\cases\MeasurementSeriesNotification</t>
         </is>
       </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>xml\cases\MeasurementSeriesNotification</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -5219,6 +5802,11 @@
           <t>Error Message 6.xml</t>
         </is>
       </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>Error Message 7.xml</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -5261,6 +5849,11 @@
           <t>normal_day</t>
         </is>
       </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>normal_day</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -5303,6 +5896,11 @@
           <t>661</t>
         </is>
       </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -5345,6 +5943,11 @@
           <t>NLPROTOC-OLTE-STEM-6000-000000000000</t>
         </is>
       </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>NLPROTOC-OLTE-STEM-7000-000000000000</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -5387,6 +5990,11 @@
           <t>2021-03-02-22:00:00</t>
         </is>
       </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>2021-03-01-22:00:00</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -5429,6 +6037,11 @@
           <t>2021-03-01-22:00:00</t>
         </is>
       </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>2021-03-02-22:00:00</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -5471,6 +6084,11 @@
           <t>8716948001000</t>
         </is>
       </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>8716948001000</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -5513,6 +6131,11 @@
           <t>871687120000020002</t>
         </is>
       </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>871687120000020002</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -5555,6 +6178,11 @@
           <t>load_from_file_1</t>
         </is>
       </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>load_from_file_1</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -5593,6 +6221,11 @@
         </is>
       </c>
       <c r="H59" t="inlineStr">
+        <is>
+          <t>load_from_file</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
         <is>
           <t>load_from_file</t>
         </is>
@@ -5611,6 +6244,7 @@
       <c r="F60" t="inlineStr"/>
       <c r="G60" t="inlineStr"/>
       <c r="H60" t="inlineStr"/>
+      <c r="I60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -5653,6 +6287,11 @@
           <t>supplier, reciver, sender, operator</t>
         </is>
       </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>supplier, reciver, sender, operator</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -5695,6 +6334,11 @@
           <t>correct net area</t>
         </is>
       </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>correct net area</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -5737,6 +6381,11 @@
           <t>correct gridpoint</t>
         </is>
       </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>correct gridpoint</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -5779,6 +6428,11 @@
           <t>correct supply contract</t>
         </is>
       </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>correct supply contract</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -5817,6 +6471,11 @@
         </is>
       </c>
       <c r="H65" t="inlineStr">
+        <is>
+          <t>correct connections</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
         <is>
           <t>correct connections</t>
         </is>
